--- a/testhomepage.xlsx
+++ b/testhomepage.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>备注</t>
   </si>
@@ -161,14 +161,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,133 +634,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -775,16 +768,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,13 +1091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="105.25" customWidth="1"/>
     <col min="2" max="2" width="88.25" customWidth="1"/>
@@ -1176,193 +1169,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="https://globorural.globo.com/pecuaria/" tooltip="https://globorural.globo.com/pecuaria/"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://tardaguila.uy/ganaderia"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://blasinayasociados.com/ganaderia/"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://bichosdecampo.com/"/>
-    <hyperlink ref="B4" r:id="rId5" display="https://www.beefcentral.com/news/"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://www.gub.uy/ministerio-ganaderia-agricultura-pesca/comunicacion/noticias"/>
-    <hyperlink ref="B7" r:id="rId7" display="https://www.gov.br/agricultura/pt-br/assuntos/noticias"/>
-    <hyperlink ref="B8" r:id="rId8" display="https://www.noticiasagropecuarias.com/category/ganaderia/"/>
-    <hyperlink ref="B9" r:id="rId9" display="https://beefpoint.com.br/cadeia-produtiva/giro-do-boi/"/>
-    <hyperlink ref="B10" r:id="rId10" display="https://www.souagro.net/categoria/editoriais/pecuaria/"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://www.comprerural.com/categorias/noticias/"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://eurocarne.com/noticias" tooltip="https://eurocarne.com/noticias"/>
-    <hyperlink ref="B14" r:id="rId13" display="https://www.farmnews.com.br/category/mercado/" tooltip="https://www.farmnews.com.br/category/mercado/"/>
-    <hyperlink ref="B15" r:id="rId14" display="https://www.theagribiz.com/agribuzz/" tooltip="https://www.theagribiz.com/agribuzz/"/>
-    <hyperlink ref="B16" r:id="rId15" display="https://www.agriland.ie/latest-farming-news/" tooltip="https://www.agriland.ie/latest-farming-news/"/>
-    <hyperlink ref="B17" r:id="rId16" display="https://www.thebeefsite.com/latest?page=1" tooltip="https://www.thebeefsite.com/latest?page=1"/>
-    <hyperlink ref="B18" r:id="rId17" display="https://www.mla.com.au/news-and-events/industry-news/" tooltip="https://www.mla.com.au/news-and-events/industry-news/"/>
-    <hyperlink ref="B19" r:id="rId18" display="https://www.canadiancattlemen.ca/"/>
-    <hyperlink ref="B20" r:id="rId19" display="https://www.elobservador.com.uy/elobservador/agro"/>
-    <hyperlink ref="B21" r:id="rId20" display="https://www.batimes.com.ar/topics/agriculture"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://tardaguila.uy/ganaderia"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://blasinayasociados.com/ganaderia/"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://bichosdecampo.com/"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://www.beefcentral.com/news/"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.gub.uy/ministerio-ganaderia-agricultura-pesca/comunicacion/noticias"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1373,14 +1186,249 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="50.875" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="https://globorural.globo.com/pecuaria/" tooltip="https://globorural.globo.com/pecuaria/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://blasinayasociados.com/ganaderia/"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://bichosdecampo.com/"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://www.beefcentral.com/news/"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://www.gub.uy/ministerio-ganaderia-agricultura-pesca/comunicacion/noticias"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://www.gov.br/agricultura/pt-br/assuntos/noticias"/>
+    <hyperlink ref="B7" r:id="rId7" display="https://www.noticiasagropecuarias.com/category/ganaderia/"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://beefpoint.com.br/cadeia-produtiva/giro-do-boi/"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://www.souagro.net/categoria/editoriais/pecuaria/"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://www.comprerural.com/categorias/noticias/"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://eurocarne.com/noticias" tooltip="https://eurocarne.com/noticias"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://www.farmnews.com.br/category/mercado/" tooltip="https://www.farmnews.com.br/category/mercado/"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://www.theagribiz.com/agribuzz/" tooltip="https://www.theagribiz.com/agribuzz/"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://www.agriland.ie/latest-farming-news/" tooltip="https://www.agriland.ie/latest-farming-news/"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://www.thebeefsite.com/latest?page=1" tooltip="https://www.thebeefsite.com/latest?page=1"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://www.mla.com.au/news-and-events/industry-news/" tooltip="https://www.mla.com.au/news-and-events/industry-news/"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://www.canadiancattlemen.ca/"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://www.elobservador.com.uy/elobservador/agro"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://www.batimes.com.ar/topics/agriculture"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
